--- a/students.xlsx
+++ b/students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\MyRoster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B48ACF-E811-46C7-9A9A-558835417F5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310F4C8C-B3E1-4D5E-8839-4CC344EDA843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{559D669F-2F0D-45C7-82E5-E161B8D94D6D}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{559D669F-2F0D-45C7-82E5-E161B8D94D6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="417">
   <si>
     <t>班</t>
   </si>
@@ -1246,9 +1246,6 @@
   </si>
   <si>
     <t>解淑颖</t>
-  </si>
-  <si>
-    <t>1_10</t>
   </si>
   <si>
     <t>7_1</t>
@@ -1285,7 +1282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1295,24 +1292,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="楷体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="楷体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1332,7 +1316,11 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="楷体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="楷体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1391,14 +1379,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1406,34 +1394,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1756,11 +1744,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4856C87-535E-4B44-99FC-8CDA87C5D235}">
   <dimension ref="A1:B411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1771,7 +1763,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1779,8 +1771,8 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1788,7 +1780,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -1796,7 +1788,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -1804,7 +1796,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1812,7 +1804,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -1820,7 +1812,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -1828,7 +1820,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -1836,7 +1828,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -1844,7 +1836,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -1852,7 +1844,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -1860,7 +1852,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
@@ -1868,7 +1860,7 @@
     </row>
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
@@ -1876,7 +1868,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
@@ -1884,7 +1876,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
@@ -1892,7 +1884,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
@@ -1900,7 +1892,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
@@ -1908,7 +1900,7 @@
     </row>
     <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
@@ -1916,7 +1908,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
@@ -1924,7 +1916,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
@@ -1932,7 +1924,7 @@
     </row>
     <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
@@ -1940,7 +1932,7 @@
     </row>
     <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
@@ -1948,7 +1940,7 @@
     </row>
     <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
@@ -1956,7 +1948,7 @@
     </row>
     <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
@@ -1964,7 +1956,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
@@ -1972,7 +1964,7 @@
     </row>
     <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
@@ -1980,7 +1972,7 @@
     </row>
     <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
@@ -1988,7 +1980,7 @@
     </row>
     <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
@@ -1996,7 +1988,7 @@
     </row>
     <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
@@ -2004,7 +1996,7 @@
     </row>
     <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
@@ -2012,7 +2004,7 @@
     </row>
     <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
@@ -2020,7 +2012,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
@@ -2028,7 +2020,7 @@
     </row>
     <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
@@ -2036,7 +2028,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
@@ -2044,7 +2036,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
@@ -2052,7 +2044,7 @@
     </row>
     <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
@@ -2060,7 +2052,7 @@
     </row>
     <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
@@ -2068,7 +2060,7 @@
     </row>
     <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
@@ -2076,7 +2068,7 @@
     </row>
     <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
@@ -2084,7 +2076,7 @@
     </row>
     <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
@@ -2092,319 +2084,319 @@
     </row>
     <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B42" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B43" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B44" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B45" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B46" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B47" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B48" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B49" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B50" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B51" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B52" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B53" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B54" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B55" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B56" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B57" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B58" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B59" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B60" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B61" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B62" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B63" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B64" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B65" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B66" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B67" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B68" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B69" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B70" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B71" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B72" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B73" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B74" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B75" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B76" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B77" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B78" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B79" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B80" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>81</v>
@@ -2412,7 +2404,7 @@
     </row>
     <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>82</v>
@@ -2420,7 +2412,7 @@
     </row>
     <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>83</v>
@@ -2428,7 +2420,7 @@
     </row>
     <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>84</v>
@@ -2436,7 +2428,7 @@
     </row>
     <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>85</v>
@@ -2444,7 +2436,7 @@
     </row>
     <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>86</v>
@@ -2452,7 +2444,7 @@
     </row>
     <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>87</v>
@@ -2460,7 +2452,7 @@
     </row>
     <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>88</v>
@@ -2468,7 +2460,7 @@
     </row>
     <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>89</v>
@@ -2476,7 +2468,7 @@
     </row>
     <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>90</v>
@@ -2484,7 +2476,7 @@
     </row>
     <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>91</v>
@@ -2492,7 +2484,7 @@
     </row>
     <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>92</v>
@@ -2500,7 +2492,7 @@
     </row>
     <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>93</v>
@@ -2508,7 +2500,7 @@
     </row>
     <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>94</v>
@@ -2516,7 +2508,7 @@
     </row>
     <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>95</v>
@@ -2524,7 +2516,7 @@
     </row>
     <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>96</v>
@@ -2532,7 +2524,7 @@
     </row>
     <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>97</v>
@@ -2540,7 +2532,7 @@
     </row>
     <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>98</v>
@@ -2548,7 +2540,7 @@
     </row>
     <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>99</v>
@@ -2556,7 +2548,7 @@
     </row>
     <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>100</v>
@@ -2564,7 +2556,7 @@
     </row>
     <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>101</v>
@@ -2572,7 +2564,7 @@
     </row>
     <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>102</v>
@@ -2580,7 +2572,7 @@
     </row>
     <row r="103" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>103</v>
@@ -2588,7 +2580,7 @@
     </row>
     <row r="104" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>104</v>
@@ -2596,7 +2588,7 @@
     </row>
     <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>105</v>
@@ -2604,7 +2596,7 @@
     </row>
     <row r="106" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>106</v>
@@ -2612,7 +2604,7 @@
     </row>
     <row r="107" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>107</v>
@@ -2620,7 +2612,7 @@
     </row>
     <row r="108" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>108</v>
@@ -2628,7 +2620,7 @@
     </row>
     <row r="109" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>109</v>
@@ -2636,7 +2628,7 @@
     </row>
     <row r="110" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>110</v>
@@ -2644,7 +2636,7 @@
     </row>
     <row r="111" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>111</v>
@@ -2652,7 +2644,7 @@
     </row>
     <row r="112" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>112</v>
@@ -2660,7 +2652,7 @@
     </row>
     <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>113</v>
@@ -2668,7 +2660,7 @@
     </row>
     <row r="114" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>114</v>
@@ -2676,7 +2668,7 @@
     </row>
     <row r="115" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>115</v>
@@ -2684,7 +2676,7 @@
     </row>
     <row r="116" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>116</v>
@@ -2692,7 +2684,7 @@
     </row>
     <row r="117" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>117</v>
@@ -2700,7 +2692,7 @@
     </row>
     <row r="118" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>118</v>
@@ -2708,7 +2700,7 @@
     </row>
     <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>119</v>
@@ -2716,7 +2708,7 @@
     </row>
     <row r="120" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>120</v>
@@ -2724,7 +2716,7 @@
     </row>
     <row r="121" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>121</v>
@@ -2732,7 +2724,7 @@
     </row>
     <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>122</v>
@@ -2740,7 +2732,7 @@
     </row>
     <row r="123" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>123</v>
@@ -2748,7 +2740,7 @@
     </row>
     <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>124</v>
@@ -2756,7 +2748,7 @@
     </row>
     <row r="125" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>125</v>
@@ -2764,7 +2756,7 @@
     </row>
     <row r="126" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>126</v>
@@ -2772,7 +2764,7 @@
     </row>
     <row r="127" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>127</v>
@@ -2780,7 +2772,7 @@
     </row>
     <row r="128" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>128</v>
@@ -2788,7 +2780,7 @@
     </row>
     <row r="129" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>129</v>
@@ -2796,7 +2788,7 @@
     </row>
     <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>130</v>
@@ -2804,7 +2796,7 @@
     </row>
     <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>131</v>
@@ -2812,7 +2804,7 @@
     </row>
     <row r="132" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>132</v>
@@ -2820,7 +2812,7 @@
     </row>
     <row r="133" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>133</v>
@@ -2828,7 +2820,7 @@
     </row>
     <row r="134" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>134</v>
@@ -2836,7 +2828,7 @@
     </row>
     <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>135</v>
@@ -2844,7 +2836,7 @@
     </row>
     <row r="136" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>136</v>
@@ -2852,7 +2844,7 @@
     </row>
     <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>137</v>
@@ -2860,7 +2852,7 @@
     </row>
     <row r="138" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>138</v>
@@ -2868,7 +2860,7 @@
     </row>
     <row r="139" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>139</v>
@@ -2876,7 +2868,7 @@
     </row>
     <row r="140" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>140</v>
@@ -2884,7 +2876,7 @@
     </row>
     <row r="141" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>141</v>
@@ -2892,7 +2884,7 @@
     </row>
     <row r="142" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>142</v>
@@ -2900,7 +2892,7 @@
     </row>
     <row r="143" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>143</v>
@@ -2908,7 +2900,7 @@
     </row>
     <row r="144" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>144</v>
@@ -2916,7 +2908,7 @@
     </row>
     <row r="145" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>145</v>
@@ -2924,7 +2916,7 @@
     </row>
     <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>146</v>
@@ -2932,7 +2924,7 @@
     </row>
     <row r="147" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>147</v>
@@ -2940,7 +2932,7 @@
     </row>
     <row r="148" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>148</v>
@@ -2948,7 +2940,7 @@
     </row>
     <row r="149" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>149</v>
@@ -2956,7 +2948,7 @@
     </row>
     <row r="150" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>150</v>
@@ -2964,7 +2956,7 @@
     </row>
     <row r="151" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>151</v>
@@ -2972,7 +2964,7 @@
     </row>
     <row r="152" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>152</v>
@@ -2980,7 +2972,7 @@
     </row>
     <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>153</v>
@@ -2988,7 +2980,7 @@
     </row>
     <row r="154" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>154</v>
@@ -2996,7 +2988,7 @@
     </row>
     <row r="155" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>155</v>
@@ -3004,7 +2996,7 @@
     </row>
     <row r="156" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>156</v>
@@ -3012,7 +3004,7 @@
     </row>
     <row r="157" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>157</v>
@@ -3020,7 +3012,7 @@
     </row>
     <row r="158" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>158</v>
@@ -3028,7 +3020,7 @@
     </row>
     <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>159</v>
@@ -3036,7 +3028,7 @@
     </row>
     <row r="160" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>160</v>
@@ -3044,7 +3036,7 @@
     </row>
     <row r="161" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>161</v>
@@ -3052,7 +3044,7 @@
     </row>
     <row r="162" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>162</v>
@@ -3060,7 +3052,7 @@
     </row>
     <row r="163" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>163</v>
@@ -3068,7 +3060,7 @@
     </row>
     <row r="164" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>164</v>
@@ -3076,7 +3068,7 @@
     </row>
     <row r="165" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>165</v>
@@ -3084,7 +3076,7 @@
     </row>
     <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>166</v>
@@ -3092,7 +3084,7 @@
     </row>
     <row r="167" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>167</v>
@@ -3100,7 +3092,7 @@
     </row>
     <row r="168" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>168</v>
@@ -3108,7 +3100,7 @@
     </row>
     <row r="169" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>169</v>
@@ -3116,7 +3108,7 @@
     </row>
     <row r="170" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>170</v>
@@ -3124,7 +3116,7 @@
     </row>
     <row r="171" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>171</v>
@@ -3132,7 +3124,7 @@
     </row>
     <row r="172" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>172</v>
@@ -3140,7 +3132,7 @@
     </row>
     <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>173</v>
@@ -3148,7 +3140,7 @@
     </row>
     <row r="174" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>174</v>
@@ -3156,7 +3148,7 @@
     </row>
     <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>175</v>
@@ -3164,7 +3156,7 @@
     </row>
     <row r="176" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>176</v>
@@ -3172,7 +3164,7 @@
     </row>
     <row r="177" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>177</v>
@@ -3180,7 +3172,7 @@
     </row>
     <row r="178" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>178</v>
@@ -3188,7 +3180,7 @@
     </row>
     <row r="179" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>179</v>
@@ -3196,7 +3188,7 @@
     </row>
     <row r="180" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>180</v>
@@ -3204,7 +3196,7 @@
     </row>
     <row r="181" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>181</v>
@@ -3212,7 +3204,7 @@
     </row>
     <row r="182" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>182</v>
@@ -3220,7 +3212,7 @@
     </row>
     <row r="183" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>183</v>
@@ -3228,7 +3220,7 @@
     </row>
     <row r="184" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>184</v>
@@ -3236,7 +3228,7 @@
     </row>
     <row r="185" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>185</v>
@@ -3244,7 +3236,7 @@
     </row>
     <row r="186" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>186</v>
@@ -3252,7 +3244,7 @@
     </row>
     <row r="187" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>187</v>
@@ -3260,7 +3252,7 @@
     </row>
     <row r="188" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>188</v>
@@ -3268,7 +3260,7 @@
     </row>
     <row r="189" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>189</v>
@@ -3276,7 +3268,7 @@
     </row>
     <row r="190" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>190</v>
@@ -3284,7 +3276,7 @@
     </row>
     <row r="191" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>191</v>
@@ -3292,7 +3284,7 @@
     </row>
     <row r="192" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>192</v>
@@ -3300,7 +3292,7 @@
     </row>
     <row r="193" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>193</v>
@@ -3308,7 +3300,7 @@
     </row>
     <row r="194" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>194</v>
@@ -3316,7 +3308,7 @@
     </row>
     <row r="195" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>195</v>
@@ -3324,7 +3316,7 @@
     </row>
     <row r="196" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>196</v>
@@ -3332,7 +3324,7 @@
     </row>
     <row r="197" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>197</v>
@@ -3340,7 +3332,7 @@
     </row>
     <row r="198" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>198</v>
@@ -3348,7 +3340,7 @@
     </row>
     <row r="199" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>199</v>
@@ -3356,7 +3348,7 @@
     </row>
     <row r="200" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>200</v>
@@ -3364,7 +3356,7 @@
     </row>
     <row r="201" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>201</v>
@@ -3372,7 +3364,7 @@
     </row>
     <row r="202" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>202</v>
@@ -3380,7 +3372,7 @@
     </row>
     <row r="203" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>203</v>
@@ -3388,7 +3380,7 @@
     </row>
     <row r="204" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>204</v>
@@ -3396,7 +3388,7 @@
     </row>
     <row r="205" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>205</v>
@@ -3404,263 +3396,263 @@
     </row>
     <row r="206" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B206" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B207" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B207" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B208" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B208" s="5" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B209" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B209" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B210" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B211" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B211" s="5" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B212" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B212" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B213" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B213" s="5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B214" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B214" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B215" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B215" s="5" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B216" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B217" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B218" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B219" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B220" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B221" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B222" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B223" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B224" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B225" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B226" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B227" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B227" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B228" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B229" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B229" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B230" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B230" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B231" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B232" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B233" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B234" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B235" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B236" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B237" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>237</v>
@@ -3668,791 +3660,791 @@
     </row>
     <row r="239" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B239" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B239" s="5" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B240" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B241" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B242" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B243" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B244" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B245" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B246" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B247" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B248" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B248" s="3" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B249" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B250" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B251" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B251" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B252" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B253" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B254" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B255" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B256" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B257" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B258" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B259" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B260" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B261" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B262" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B263" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B264" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B265" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B265" s="5" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B266" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B266" s="5" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B267" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B268" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B269" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B269" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B270" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B271" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B272" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B273" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B274" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B275" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B275" s="8" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B276" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B276" s="5" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B277" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B278" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B279" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B279" s="5" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B280" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B281" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B282" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B283" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B284" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B285" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B285" s="5" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B286" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B287" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B288" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B289" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B290" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B290" s="9" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B291" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B291" s="5" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B292" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B292" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B293" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B294" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B295" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B295" s="5" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B296" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B297" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B297" s="5" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B298" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B298" s="5" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B299" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B300" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B300" s="5" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B301" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B302" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B303" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B303" s="5" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B304" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B304" s="5" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B305" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B306" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B307" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B307" s="5" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B308" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B308" s="5" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B309" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B309" s="5" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B310" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B310" s="3" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B311" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B312" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B312" s="2" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B313" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B313" s="2" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B314" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B315" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B315" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B316" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B316" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B317" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B317" s="2" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B318" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B318" s="5" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B319" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B319" s="2" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B320" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B320" s="2" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B321" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B321" s="2" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B322" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B322" s="2" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B323" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B323" s="2" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B324" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B324" s="2" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B325" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B326" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B327" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B328" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B328" s="3" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B329" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B329" s="2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B330" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B330" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B331" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B331" s="2" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B332" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B332" s="2" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B333" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B333" s="2" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B334" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B334" s="2" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B335" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B335" s="2" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B336" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>335</v>
@@ -4460,7 +4452,7 @@
     </row>
     <row r="338" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>336</v>
@@ -4468,7 +4460,7 @@
     </row>
     <row r="339" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>337</v>
@@ -4476,7 +4468,7 @@
     </row>
     <row r="340" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>338</v>
@@ -4484,7 +4476,7 @@
     </row>
     <row r="341" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>339</v>
@@ -4492,7 +4484,7 @@
     </row>
     <row r="342" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>340</v>
@@ -4500,7 +4492,7 @@
     </row>
     <row r="343" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>341</v>
@@ -4508,7 +4500,7 @@
     </row>
     <row r="344" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>342</v>
@@ -4516,7 +4508,7 @@
     </row>
     <row r="345" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>343</v>
@@ -4524,7 +4516,7 @@
     </row>
     <row r="346" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>344</v>
@@ -4532,7 +4524,7 @@
     </row>
     <row r="347" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>345</v>
@@ -4540,7 +4532,7 @@
     </row>
     <row r="348" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>346</v>
@@ -4548,7 +4540,7 @@
     </row>
     <row r="349" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>347</v>
@@ -4556,7 +4548,7 @@
     </row>
     <row r="350" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>348</v>
@@ -4564,7 +4556,7 @@
     </row>
     <row r="351" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>349</v>
@@ -4572,7 +4564,7 @@
     </row>
     <row r="352" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>350</v>
@@ -4580,7 +4572,7 @@
     </row>
     <row r="353" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>351</v>
@@ -4588,7 +4580,7 @@
     </row>
     <row r="354" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>352</v>
@@ -4596,7 +4588,7 @@
     </row>
     <row r="355" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>353</v>
@@ -4604,7 +4596,7 @@
     </row>
     <row r="356" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>354</v>
@@ -4612,7 +4604,7 @@
     </row>
     <row r="357" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>355</v>
@@ -4620,7 +4612,7 @@
     </row>
     <row r="358" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>356</v>
@@ -4628,7 +4620,7 @@
     </row>
     <row r="359" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>357</v>
@@ -4636,7 +4628,7 @@
     </row>
     <row r="360" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>358</v>
@@ -4644,7 +4636,7 @@
     </row>
     <row r="361" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>359</v>
@@ -4652,7 +4644,7 @@
     </row>
     <row r="362" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>360</v>
@@ -4660,7 +4652,7 @@
     </row>
     <row r="363" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>361</v>
@@ -4668,7 +4660,7 @@
     </row>
     <row r="364" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>362</v>
@@ -4676,7 +4668,7 @@
     </row>
     <row r="365" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>363</v>
@@ -4684,7 +4676,7 @@
     </row>
     <row r="366" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>364</v>
@@ -4692,7 +4684,7 @@
     </row>
     <row r="367" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>365</v>
@@ -4700,7 +4692,7 @@
     </row>
     <row r="368" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>366</v>
@@ -4708,7 +4700,7 @@
     </row>
     <row r="369" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>367</v>
@@ -4716,7 +4708,7 @@
     </row>
     <row r="370" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>368</v>
@@ -4724,334 +4716,334 @@
     </row>
     <row r="371" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B372" s="6" t="s">
+      <c r="A372" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B372" s="5" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B373" s="6" t="s">
+      <c r="A373" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B373" s="5" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B374" s="3" t="s">
+      <c r="A374" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B374" s="2" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B375" s="3" t="s">
+      <c r="A375" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B375" s="2" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B376" s="3" t="s">
+      <c r="A376" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B376" s="2" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B377" s="3" t="s">
+      <c r="A377" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B377" s="2" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B378" s="1" t="s">
+      <c r="A378" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B378" s="10" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B379" s="1" t="s">
+      <c r="A379" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B379" s="10" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B380" s="1" t="s">
+      <c r="A380" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B380" s="10" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B381" s="1" t="s">
+      <c r="A381" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B381" s="10" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B382" s="1" t="s">
+      <c r="A382" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B382" s="10" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B383" s="1" t="s">
+      <c r="A383" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B383" s="10" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B384" s="1" t="s">
+      <c r="A384" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B384" s="10" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B385" s="1" t="s">
+      <c r="A385" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B385" s="10" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B386" s="1" t="s">
+      <c r="A386" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B386" s="10" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B387" s="1" t="s">
+      <c r="A387" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B387" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B388" s="1" t="s">
+      <c r="A388" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B388" s="10" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A389" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B389" s="1" t="s">
+      <c r="A389" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B389" s="10" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B390" s="1" t="s">
+      <c r="A390" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B390" s="10" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A391" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B391" s="1" t="s">
+      <c r="A391" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B391" s="10" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A392" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B392" s="1" t="s">
+      <c r="A392" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B392" s="10" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B393" s="3" t="s">
+      <c r="A393" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B393" s="2" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A394" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B394" s="1" t="s">
+      <c r="A394" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B394" s="10" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A395" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B395" s="1" t="s">
+      <c r="A395" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B395" s="10" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B396" s="1" t="s">
+      <c r="A396" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B396" s="10" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A397" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B397" s="1" t="s">
+      <c r="A397" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B397" s="10" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B398" s="1" t="s">
+      <c r="A398" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B398" s="10" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B399" s="1" t="s">
+      <c r="A399" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B399" s="10" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A400" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B400" s="1" t="s">
+      <c r="A400" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B400" s="10" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B401" s="1" t="s">
+      <c r="A401" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B401" s="10" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A402" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B402" s="1" t="s">
+      <c r="A402" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B402" s="10" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A403" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B403" s="1" t="s">
+      <c r="A403" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B403" s="10" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A404" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B404" s="1" t="s">
+      <c r="A404" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B404" s="10" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B405" s="3" t="s">
+      <c r="A405" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B405" s="2" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A406" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B406" s="3" t="s">
+      <c r="A406" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B406" s="2" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A407" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B407" s="3" t="s">
+      <c r="A407" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B407" s="2" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B408" s="3" t="s">
+      <c r="A408" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B408" s="2" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B409" s="3" t="s">
+      <c r="A409" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B409" s="2" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A410" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B410" s="3" t="s">
+      <c r="A410" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B410" s="2" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A411" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B411" s="3" t="s">
+      <c r="A411" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B411" s="2" t="s">
         <v>406</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
